--- a/argos_ml_project/static/excel/InformeEnsacadoMezclado.xlsx
+++ b/argos_ml_project/static/excel/InformeEnsacadoMezclado.xlsx
@@ -1063,7 +1063,7 @@
     <row r="2" ht="15.75" customHeight="1" s="6" thickBot="1">
       <c r="A2" s="41" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B2" s="34" t="inlineStr">
@@ -1104,70 +1104,50 @@
         </is>
       </c>
       <c r="B4" s="14" t="n">
-        <v>4601265</v>
+        <v>4601268</v>
       </c>
       <c r="C4" s="14" t="inlineStr">
         <is>
-          <t>MORTERO SECO REPELLO SIN FIBRA 40KG ARG</t>
+          <t>MORTERO SECO TOPPING 40KG ARG</t>
         </is>
       </c>
       <c r="D4" s="14" t="n">
-        <v>1077</v>
+        <v>2612</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>43.1</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="40" t="n"/>
       <c r="B5" s="14" t="n">
-        <v>4626026</v>
+        <v>4601266</v>
       </c>
       <c r="C5" s="14" t="inlineStr">
         <is>
-          <t>MORTERO SECO MULTI USO 40KG ARG</t>
+          <t>MORTERO SECO PEGABLOQUE 40KG ARG</t>
         </is>
       </c>
       <c r="D5" s="14" t="n">
-        <v>2862</v>
+        <v>10</v>
       </c>
       <c r="E5" s="14" t="n">
-        <v>114.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="n"/>
-      <c r="B6" s="14" t="n">
-        <v>4601266</v>
-      </c>
-      <c r="C6" s="14" t="inlineStr">
-        <is>
-          <t>MORTERO SECO PEGABLOQUE 40KG ARG</t>
-        </is>
-      </c>
-      <c r="D6" s="14" t="n">
-        <v>9</v>
-      </c>
-      <c r="E6" s="14" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="B6" s="14" t="n"/>
+      <c r="C6" s="14" t="n"/>
+      <c r="D6" s="14" t="n"/>
+      <c r="E6" s="14" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="40" t="n"/>
-      <c r="B7" s="14" t="n">
-        <v>4626251</v>
-      </c>
-      <c r="C7" s="14" t="inlineStr">
-        <is>
-          <t>MORTERO SECO REPELLO TIPO S 40KG ARG</t>
-        </is>
-      </c>
-      <c r="D7" s="14" t="n">
-        <v>94</v>
-      </c>
-      <c r="E7" s="14" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="B7" s="14" t="n"/>
+      <c r="C7" s="14" t="n"/>
+      <c r="D7" s="14" t="n"/>
+      <c r="E7" s="14" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="40" t="n"/>
@@ -1362,15 +1342,15 @@
         </is>
       </c>
       <c r="B18" s="14" t="n">
-        <v>4626026</v>
+        <v>4601268</v>
       </c>
       <c r="C18" s="14" t="inlineStr">
         <is>
-          <t>MORTERO SECO MULTI USO 40KG ARG</t>
+          <t>MORTERO SECO TOPPING 40KG ARG</t>
         </is>
       </c>
       <c r="D18" s="14" t="n">
-        <v>820</v>
+        <v>1026</v>
       </c>
       <c r="E18" s="14" t="n">
         <v>0</v>
@@ -1385,499 +1365,191 @@
         <v>0</v>
       </c>
       <c r="I18" s="14" t="n">
-        <v>1184</v>
+        <v>0</v>
       </c>
       <c r="J18" s="14" t="n">
-        <v>1224</v>
+        <v>0</v>
       </c>
       <c r="K18" s="14" t="n">
-        <v>0</v>
+        <v>78078</v>
       </c>
       <c r="L18" s="14" t="n">
-        <v>0</v>
+        <v>79139</v>
       </c>
       <c r="M18" s="14" t="n">
-        <v>0</v>
+        <v>11316</v>
       </c>
       <c r="N18" s="14" t="n">
-        <v>0</v>
+        <v>11019</v>
       </c>
       <c r="O18" s="14" t="n">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="P18" s="14" t="n">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="14" t="inlineStr">
         <is>
-          <t>2024-02-26 11:45:00</t>
+          <t>2024-08-06 08:10:00</t>
         </is>
       </c>
       <c r="R18" s="14" t="inlineStr">
         <is>
-          <t>2024-02-26 11:45:00</t>
+          <t>2024-08-06 15:43:00</t>
         </is>
       </c>
       <c r="S18" s="18" t="inlineStr">
         <is>
-          <t>0:00:00</t>
+          <t>7:33:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="40" t="n"/>
-      <c r="B19" s="14" t="n">
-        <v>4601266</v>
-      </c>
-      <c r="C19" s="14" t="inlineStr">
-        <is>
-          <t>MORTERO SECO PEGABLOQUE 40KG ARG</t>
-        </is>
-      </c>
-      <c r="D19" s="14" t="n">
-        <v>820</v>
-      </c>
-      <c r="E19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14" t="n">
-        <v>1184</v>
-      </c>
-      <c r="J19" s="14" t="n">
-        <v>1224</v>
-      </c>
-      <c r="K19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="14" t="n">
-        <v>336</v>
-      </c>
-      <c r="P19" s="14" t="n">
-        <v>320</v>
-      </c>
-      <c r="Q19" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 11:43:00</t>
-        </is>
-      </c>
-      <c r="R19" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 11:43:00</t>
-        </is>
-      </c>
-      <c r="S19" s="18" t="inlineStr">
-        <is>
-          <t>0:00:00</t>
-        </is>
-      </c>
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="14" t="n"/>
+      <c r="D19" s="14" t="n"/>
+      <c r="E19" s="14" t="n"/>
+      <c r="F19" s="14" t="n"/>
+      <c r="G19" s="14" t="n"/>
+      <c r="H19" s="14" t="n"/>
+      <c r="I19" s="14" t="n"/>
+      <c r="J19" s="14" t="n"/>
+      <c r="K19" s="14" t="n"/>
+      <c r="L19" s="14" t="n"/>
+      <c r="M19" s="14" t="n"/>
+      <c r="N19" s="14" t="n"/>
+      <c r="O19" s="14" t="n"/>
+      <c r="P19" s="14" t="n"/>
+      <c r="Q19" s="14" t="n"/>
+      <c r="R19" s="14" t="n"/>
+      <c r="S19" s="18" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="40" t="n"/>
-      <c r="B20" s="14" t="n">
-        <v>4626026</v>
-      </c>
-      <c r="C20" s="14" t="inlineStr">
-        <is>
-          <t>MORTERO SECO MULTI USO 40KG ARG</t>
-        </is>
-      </c>
-      <c r="D20" s="14" t="n">
-        <v>821</v>
-      </c>
-      <c r="E20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14" t="n">
-        <v>41331.84</v>
-      </c>
-      <c r="J20" s="14" t="n">
-        <v>42755</v>
-      </c>
-      <c r="K20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="14" t="n">
-        <v>17280</v>
-      </c>
-      <c r="P20" s="14" t="n">
-        <v>16650</v>
-      </c>
-      <c r="Q20" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 11:52:00</t>
-        </is>
-      </c>
-      <c r="R20" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 15:22:00</t>
-        </is>
-      </c>
-      <c r="S20" s="18" t="inlineStr">
-        <is>
-          <t>3:30:00</t>
-        </is>
-      </c>
+      <c r="B20" s="14" t="n"/>
+      <c r="C20" s="14" t="n"/>
+      <c r="D20" s="14" t="n"/>
+      <c r="E20" s="14" t="n"/>
+      <c r="F20" s="14" t="n"/>
+      <c r="G20" s="14" t="n"/>
+      <c r="H20" s="14" t="n"/>
+      <c r="I20" s="14" t="n"/>
+      <c r="J20" s="14" t="n"/>
+      <c r="K20" s="14" t="n"/>
+      <c r="L20" s="14" t="n"/>
+      <c r="M20" s="14" t="n"/>
+      <c r="N20" s="14" t="n"/>
+      <c r="O20" s="14" t="n"/>
+      <c r="P20" s="14" t="n"/>
+      <c r="Q20" s="14" t="n"/>
+      <c r="R20" s="14" t="n"/>
+      <c r="S20" s="18" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="40" t="n"/>
-      <c r="B21" s="14" t="n">
-        <v>4626026</v>
-      </c>
-      <c r="C21" s="14" t="inlineStr">
-        <is>
-          <t>MORTERO SECO MULTI USO 40KG ARG</t>
-        </is>
-      </c>
-      <c r="D21" s="14" t="n">
-        <v>822</v>
-      </c>
-      <c r="E21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14" t="n">
-        <v>2175.36</v>
-      </c>
-      <c r="J21" s="14" t="n">
-        <v>2251</v>
-      </c>
-      <c r="K21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="14" t="n">
-        <v>864</v>
-      </c>
-      <c r="P21" s="14" t="n">
-        <v>832</v>
-      </c>
-      <c r="Q21" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 15:31:00</t>
-        </is>
-      </c>
-      <c r="R21" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 15:34:00</t>
-        </is>
-      </c>
-      <c r="S21" s="18" t="inlineStr">
-        <is>
-          <t>0:03:00</t>
-        </is>
-      </c>
+      <c r="B21" s="14" t="n"/>
+      <c r="C21" s="14" t="n"/>
+      <c r="D21" s="14" t="n"/>
+      <c r="E21" s="14" t="n"/>
+      <c r="F21" s="14" t="n"/>
+      <c r="G21" s="14" t="n"/>
+      <c r="H21" s="14" t="n"/>
+      <c r="I21" s="14" t="n"/>
+      <c r="J21" s="14" t="n"/>
+      <c r="K21" s="14" t="n"/>
+      <c r="L21" s="14" t="n"/>
+      <c r="M21" s="14" t="n"/>
+      <c r="N21" s="14" t="n"/>
+      <c r="O21" s="14" t="n"/>
+      <c r="P21" s="14" t="n"/>
+      <c r="Q21" s="14" t="n"/>
+      <c r="R21" s="14" t="n"/>
+      <c r="S21" s="18" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="40" t="n"/>
-      <c r="B22" s="14" t="n">
-        <v>4626251</v>
-      </c>
-      <c r="C22" s="14" t="inlineStr">
-        <is>
-          <t>MORTERO SECO REPELLO TIPO S 40KG ARG</t>
-        </is>
-      </c>
-      <c r="D22" s="14" t="n">
-        <v>823</v>
-      </c>
-      <c r="E22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="14" t="n">
-        <v>2080</v>
-      </c>
-      <c r="J22" s="14" t="n">
-        <v>2153</v>
-      </c>
-      <c r="K22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="14" t="n">
-        <v>960</v>
-      </c>
-      <c r="P22" s="14" t="n">
-        <v>929</v>
-      </c>
-      <c r="Q22" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 20:22:00</t>
-        </is>
-      </c>
-      <c r="R22" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 20:26:00</t>
-        </is>
-      </c>
-      <c r="S22" s="18" t="inlineStr">
-        <is>
-          <t>0:04:00</t>
-        </is>
-      </c>
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="14" t="n"/>
+      <c r="D22" s="14" t="n"/>
+      <c r="E22" s="14" t="n"/>
+      <c r="F22" s="14" t="n"/>
+      <c r="G22" s="14" t="n"/>
+      <c r="H22" s="14" t="n"/>
+      <c r="I22" s="14" t="n"/>
+      <c r="J22" s="14" t="n"/>
+      <c r="K22" s="14" t="n"/>
+      <c r="L22" s="14" t="n"/>
+      <c r="M22" s="14" t="n"/>
+      <c r="N22" s="14" t="n"/>
+      <c r="O22" s="14" t="n"/>
+      <c r="P22" s="14" t="n"/>
+      <c r="Q22" s="14" t="n"/>
+      <c r="R22" s="14" t="n"/>
+      <c r="S22" s="18" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="40" t="n"/>
-      <c r="B23" s="14" t="n">
-        <v>4601265</v>
-      </c>
-      <c r="C23" s="14" t="inlineStr">
-        <is>
-          <t>MORTERO SECO REPELLO SIN FIBRA 40KG ARG</t>
-        </is>
-      </c>
-      <c r="D23" s="14" t="n">
-        <v>823</v>
-      </c>
-      <c r="E23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14" t="n">
-        <v>25716.48</v>
-      </c>
-      <c r="J23" s="14" t="n">
-        <v>26611</v>
-      </c>
-      <c r="K23" s="14" t="n">
-        <v>1103.52</v>
-      </c>
-      <c r="L23" s="14" t="n">
-        <v>1142</v>
-      </c>
-      <c r="M23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="14" t="n">
-        <v>12544</v>
-      </c>
-      <c r="P23" s="14" t="n">
-        <v>12103</v>
-      </c>
-      <c r="Q23" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 17:26:00</t>
-        </is>
-      </c>
-      <c r="R23" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 20:01:00</t>
-        </is>
-      </c>
-      <c r="S23" s="18" t="inlineStr">
-        <is>
-          <t>2:35:00</t>
-        </is>
-      </c>
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="14" t="n"/>
+      <c r="D23" s="14" t="n"/>
+      <c r="E23" s="14" t="n"/>
+      <c r="F23" s="14" t="n"/>
+      <c r="G23" s="14" t="n"/>
+      <c r="H23" s="14" t="n"/>
+      <c r="I23" s="14" t="n"/>
+      <c r="J23" s="14" t="n"/>
+      <c r="K23" s="14" t="n"/>
+      <c r="L23" s="14" t="n"/>
+      <c r="M23" s="14" t="n"/>
+      <c r="N23" s="14" t="n"/>
+      <c r="O23" s="14" t="n"/>
+      <c r="P23" s="14" t="n"/>
+      <c r="Q23" s="14" t="n"/>
+      <c r="R23" s="14" t="n"/>
+      <c r="S23" s="18" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="40" t="n"/>
-      <c r="B24" s="14" t="n">
-        <v>4626251</v>
-      </c>
-      <c r="C24" s="14" t="inlineStr">
-        <is>
-          <t>MORTERO SECO REPELLO TIPO S 40KG ARG</t>
-        </is>
-      </c>
-      <c r="D24" s="14" t="n">
-        <v>824</v>
-      </c>
-      <c r="E24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="14" t="n">
-        <v>1040</v>
-      </c>
-      <c r="J24" s="14" t="n">
-        <v>1076</v>
-      </c>
-      <c r="K24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="14" t="n">
-        <v>480</v>
-      </c>
-      <c r="P24" s="14" t="n">
-        <v>464</v>
-      </c>
-      <c r="Q24" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 20:47:00</t>
-        </is>
-      </c>
-      <c r="R24" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 20:47:00</t>
-        </is>
-      </c>
-      <c r="S24" s="18" t="inlineStr">
-        <is>
-          <t>0:00:00</t>
-        </is>
-      </c>
+      <c r="B24" s="14" t="n"/>
+      <c r="C24" s="14" t="n"/>
+      <c r="D24" s="14" t="n"/>
+      <c r="E24" s="14" t="n"/>
+      <c r="F24" s="14" t="n"/>
+      <c r="G24" s="14" t="n"/>
+      <c r="H24" s="14" t="n"/>
+      <c r="I24" s="14" t="n"/>
+      <c r="J24" s="14" t="n"/>
+      <c r="K24" s="14" t="n"/>
+      <c r="L24" s="14" t="n"/>
+      <c r="M24" s="14" t="n"/>
+      <c r="N24" s="14" t="n"/>
+      <c r="O24" s="14" t="n"/>
+      <c r="P24" s="14" t="n"/>
+      <c r="Q24" s="14" t="n"/>
+      <c r="R24" s="14" t="n"/>
+      <c r="S24" s="18" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="40" t="n"/>
-      <c r="B25" s="14" t="n">
-        <v>4626026</v>
-      </c>
-      <c r="C25" s="14" t="inlineStr">
-        <is>
-          <t>MORTERO SECO MULTI USO 40KG ARG</t>
-        </is>
-      </c>
-      <c r="D25" s="14" t="n">
-        <v>824</v>
-      </c>
-      <c r="E25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14" t="n">
-        <v>30455.04</v>
-      </c>
-      <c r="J25" s="14" t="n">
-        <v>31487</v>
-      </c>
-      <c r="K25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="14" t="n">
-        <v>12960</v>
-      </c>
-      <c r="P25" s="14" t="n">
-        <v>12486</v>
-      </c>
-      <c r="Q25" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 20:58:00</t>
-        </is>
-      </c>
-      <c r="R25" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 23:05:00</t>
-        </is>
-      </c>
-      <c r="S25" s="18" t="inlineStr">
-        <is>
-          <t>2:07:00</t>
-        </is>
-      </c>
+      <c r="B25" s="14" t="n"/>
+      <c r="C25" s="14" t="n"/>
+      <c r="D25" s="14" t="n"/>
+      <c r="E25" s="14" t="n"/>
+      <c r="F25" s="14" t="n"/>
+      <c r="G25" s="14" t="n"/>
+      <c r="H25" s="14" t="n"/>
+      <c r="I25" s="14" t="n"/>
+      <c r="J25" s="14" t="n"/>
+      <c r="K25" s="14" t="n"/>
+      <c r="L25" s="14" t="n"/>
+      <c r="M25" s="14" t="n"/>
+      <c r="N25" s="14" t="n"/>
+      <c r="O25" s="14" t="n"/>
+      <c r="P25" s="14" t="n"/>
+      <c r="Q25" s="14" t="n"/>
+      <c r="R25" s="14" t="n"/>
+      <c r="S25" s="18" t="n"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="6" thickBot="1">
       <c r="A26" s="41" t="n"/>
@@ -1922,28 +1594,28 @@
         <v>0</v>
       </c>
       <c r="I27" s="16" t="n">
-        <v>105166.72</v>
+        <v>0</v>
       </c>
       <c r="J27" s="16" t="n">
-        <v>108781</v>
+        <v>0</v>
       </c>
       <c r="K27" s="16" t="n">
-        <v>1103.52</v>
+        <v>78078</v>
       </c>
       <c r="L27" s="16" t="n">
-        <v>1142</v>
+        <v>79139</v>
       </c>
       <c r="M27" s="16" t="n">
-        <v>0</v>
+        <v>11316</v>
       </c>
       <c r="N27" s="16" t="n">
-        <v>0</v>
+        <v>11019</v>
       </c>
       <c r="O27" s="16" t="n">
-        <v>45760</v>
+        <v>0</v>
       </c>
       <c r="P27" s="17" t="n">
-        <v>44105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="6" thickBot="1">
@@ -2204,15 +1876,15 @@
         </is>
       </c>
       <c r="B37" s="14" t="n">
-        <v>4626026</v>
+        <v>4601268</v>
       </c>
       <c r="C37" s="14" t="inlineStr">
         <is>
-          <t>MORTERO SECO MULTI USO 40KG ARG</t>
+          <t>MORTERO SECO TOPPING 40KG ARG</t>
         </is>
       </c>
       <c r="D37" s="14" t="n">
-        <v>820</v>
+        <v>1026</v>
       </c>
       <c r="E37" s="14" t="n">
         <v>0</v>
@@ -2227,239 +1899,107 @@
         <v>0</v>
       </c>
       <c r="I37" s="14" t="n">
-        <v>1184</v>
+        <v>0</v>
       </c>
       <c r="J37" s="14" t="n">
-        <v>1224</v>
+        <v>0</v>
       </c>
       <c r="K37" s="14" t="n">
-        <v>0</v>
+        <v>78078</v>
       </c>
       <c r="L37" s="14" t="n">
-        <v>0</v>
+        <v>79139</v>
       </c>
       <c r="M37" s="14" t="n">
-        <v>0</v>
+        <v>11316</v>
       </c>
       <c r="N37" s="14" t="n">
-        <v>0</v>
+        <v>11019</v>
       </c>
       <c r="O37" s="14" t="n">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="P37" s="14" t="n">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="14" t="inlineStr">
         <is>
-          <t>2024-02-26 11:45:00</t>
+          <t>2024-08-06 08:10:00</t>
         </is>
       </c>
       <c r="R37" s="14" t="inlineStr">
         <is>
-          <t>2024-02-26 11:45:00</t>
+          <t>2024-08-06 15:43:00</t>
         </is>
       </c>
       <c r="S37" s="18" t="inlineStr">
         <is>
-          <t>0:00:00</t>
+          <t>7:33:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="40" t="n"/>
-      <c r="B38" s="14" t="n">
-        <v>4601266</v>
-      </c>
-      <c r="C38" s="14" t="inlineStr">
-        <is>
-          <t>MORTERO SECO PEGABLOQUE 40KG ARG</t>
-        </is>
-      </c>
-      <c r="D38" s="14" t="n">
-        <v>820</v>
-      </c>
-      <c r="E38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="14" t="n">
-        <v>1184</v>
-      </c>
-      <c r="J38" s="14" t="n">
-        <v>1224</v>
-      </c>
-      <c r="K38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" s="14" t="n">
-        <v>336</v>
-      </c>
-      <c r="P38" s="14" t="n">
-        <v>320</v>
-      </c>
-      <c r="Q38" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 11:43:00</t>
-        </is>
-      </c>
-      <c r="R38" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 11:43:00</t>
-        </is>
-      </c>
-      <c r="S38" s="18" t="inlineStr">
-        <is>
-          <t>0:00:00</t>
-        </is>
-      </c>
+      <c r="B38" s="14" t="n"/>
+      <c r="C38" s="14" t="n"/>
+      <c r="D38" s="14" t="n"/>
+      <c r="E38" s="14" t="n"/>
+      <c r="F38" s="14" t="n"/>
+      <c r="G38" s="14" t="n"/>
+      <c r="H38" s="14" t="n"/>
+      <c r="I38" s="14" t="n"/>
+      <c r="J38" s="14" t="n"/>
+      <c r="K38" s="14" t="n"/>
+      <c r="L38" s="14" t="n"/>
+      <c r="M38" s="14" t="n"/>
+      <c r="N38" s="14" t="n"/>
+      <c r="O38" s="14" t="n"/>
+      <c r="P38" s="14" t="n"/>
+      <c r="Q38" s="14" t="n"/>
+      <c r="R38" s="14" t="n"/>
+      <c r="S38" s="18" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="40" t="n"/>
-      <c r="B39" s="14" t="n">
-        <v>4626026</v>
-      </c>
-      <c r="C39" s="14" t="inlineStr">
-        <is>
-          <t>MORTERO SECO MULTI USO 40KG ARG</t>
-        </is>
-      </c>
-      <c r="D39" s="14" t="n">
-        <v>821</v>
-      </c>
-      <c r="E39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="14" t="n">
-        <v>41331.84</v>
-      </c>
-      <c r="J39" s="14" t="n">
-        <v>42755</v>
-      </c>
-      <c r="K39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="14" t="n">
-        <v>17280</v>
-      </c>
-      <c r="P39" s="14" t="n">
-        <v>16650</v>
-      </c>
-      <c r="Q39" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 11:52:00</t>
-        </is>
-      </c>
-      <c r="R39" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 15:22:00</t>
-        </is>
-      </c>
-      <c r="S39" s="18" t="inlineStr">
-        <is>
-          <t>3:30:00</t>
-        </is>
-      </c>
+      <c r="B39" s="14" t="n"/>
+      <c r="C39" s="14" t="n"/>
+      <c r="D39" s="14" t="n"/>
+      <c r="E39" s="14" t="n"/>
+      <c r="F39" s="14" t="n"/>
+      <c r="G39" s="14" t="n"/>
+      <c r="H39" s="14" t="n"/>
+      <c r="I39" s="14" t="n"/>
+      <c r="J39" s="14" t="n"/>
+      <c r="K39" s="14" t="n"/>
+      <c r="L39" s="14" t="n"/>
+      <c r="M39" s="14" t="n"/>
+      <c r="N39" s="14" t="n"/>
+      <c r="O39" s="14" t="n"/>
+      <c r="P39" s="14" t="n"/>
+      <c r="Q39" s="14" t="n"/>
+      <c r="R39" s="14" t="n"/>
+      <c r="S39" s="18" t="n"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="6" thickBot="1">
       <c r="A40" s="41" t="n"/>
-      <c r="B40" s="14" t="n">
-        <v>4626026</v>
-      </c>
-      <c r="C40" s="14" t="inlineStr">
-        <is>
-          <t>MORTERO SECO MULTI USO 40KG ARG</t>
-        </is>
-      </c>
-      <c r="D40" s="14" t="n">
-        <v>822</v>
-      </c>
-      <c r="E40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="14" t="n">
-        <v>2175.36</v>
-      </c>
-      <c r="J40" s="14" t="n">
-        <v>2251</v>
-      </c>
-      <c r="K40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" s="14" t="n">
-        <v>864</v>
-      </c>
-      <c r="P40" s="14" t="n">
-        <v>832</v>
-      </c>
-      <c r="Q40" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 15:31:00</t>
-        </is>
-      </c>
-      <c r="R40" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 15:34:00</t>
-        </is>
-      </c>
-      <c r="S40" s="18" t="inlineStr">
-        <is>
-          <t>0:03:00</t>
-        </is>
-      </c>
+      <c r="B40" s="14" t="n"/>
+      <c r="C40" s="14" t="n"/>
+      <c r="D40" s="14" t="n"/>
+      <c r="E40" s="14" t="n"/>
+      <c r="F40" s="14" t="n"/>
+      <c r="G40" s="14" t="n"/>
+      <c r="H40" s="14" t="n"/>
+      <c r="I40" s="14" t="n"/>
+      <c r="J40" s="14" t="n"/>
+      <c r="K40" s="14" t="n"/>
+      <c r="L40" s="14" t="n"/>
+      <c r="M40" s="14" t="n"/>
+      <c r="N40" s="14" t="n"/>
+      <c r="O40" s="14" t="n"/>
+      <c r="P40" s="14" t="n"/>
+      <c r="Q40" s="14" t="n"/>
+      <c r="R40" s="14" t="n"/>
+      <c r="S40" s="18" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="65" t="inlineStr">
@@ -2467,263 +2007,87 @@
           <t>C</t>
         </is>
       </c>
-      <c r="B41" s="14" t="n">
-        <v>4601265</v>
-      </c>
-      <c r="C41" s="14" t="inlineStr">
-        <is>
-          <t>MORTERO SECO REPELLO SIN FIBRA 40KG ARG</t>
-        </is>
-      </c>
-      <c r="D41" s="14" t="n">
-        <v>823</v>
-      </c>
-      <c r="E41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="14" t="n">
-        <v>25716.48</v>
-      </c>
-      <c r="J41" s="14" t="n">
-        <v>26611</v>
-      </c>
-      <c r="K41" s="14" t="n">
-        <v>1103.52</v>
-      </c>
-      <c r="L41" s="14" t="n">
-        <v>1142</v>
-      </c>
-      <c r="M41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" s="14" t="n">
-        <v>12544</v>
-      </c>
-      <c r="P41" s="14" t="n">
-        <v>12103</v>
-      </c>
-      <c r="Q41" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 17:26:00</t>
-        </is>
-      </c>
-      <c r="R41" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 20:01:00</t>
-        </is>
-      </c>
-      <c r="S41" s="18" t="inlineStr">
-        <is>
-          <t>2:35:00</t>
-        </is>
-      </c>
+      <c r="B41" s="14" t="n"/>
+      <c r="C41" s="14" t="n"/>
+      <c r="D41" s="14" t="n"/>
+      <c r="E41" s="14" t="n"/>
+      <c r="F41" s="14" t="n"/>
+      <c r="G41" s="14" t="n"/>
+      <c r="H41" s="14" t="n"/>
+      <c r="I41" s="14" t="n"/>
+      <c r="J41" s="14" t="n"/>
+      <c r="K41" s="14" t="n"/>
+      <c r="L41" s="14" t="n"/>
+      <c r="M41" s="14" t="n"/>
+      <c r="N41" s="14" t="n"/>
+      <c r="O41" s="14" t="n"/>
+      <c r="P41" s="14" t="n"/>
+      <c r="Q41" s="14" t="n"/>
+      <c r="R41" s="14" t="n"/>
+      <c r="S41" s="18" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="40" t="n"/>
-      <c r="B42" s="14" t="n">
-        <v>4626251</v>
-      </c>
-      <c r="C42" s="14" t="inlineStr">
-        <is>
-          <t>MORTERO SECO REPELLO TIPO S 40KG ARG</t>
-        </is>
-      </c>
-      <c r="D42" s="14" t="n">
-        <v>823</v>
-      </c>
-      <c r="E42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="14" t="n">
-        <v>2080</v>
-      </c>
-      <c r="J42" s="14" t="n">
-        <v>2153</v>
-      </c>
-      <c r="K42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" s="14" t="n">
-        <v>960</v>
-      </c>
-      <c r="P42" s="14" t="n">
-        <v>929</v>
-      </c>
-      <c r="Q42" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 20:22:00</t>
-        </is>
-      </c>
-      <c r="R42" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 20:26:00</t>
-        </is>
-      </c>
-      <c r="S42" s="18" t="inlineStr">
-        <is>
-          <t>0:04:00</t>
-        </is>
-      </c>
+      <c r="B42" s="14" t="n"/>
+      <c r="C42" s="14" t="n"/>
+      <c r="D42" s="14" t="n"/>
+      <c r="E42" s="14" t="n"/>
+      <c r="F42" s="14" t="n"/>
+      <c r="G42" s="14" t="n"/>
+      <c r="H42" s="14" t="n"/>
+      <c r="I42" s="14" t="n"/>
+      <c r="J42" s="14" t="n"/>
+      <c r="K42" s="14" t="n"/>
+      <c r="L42" s="14" t="n"/>
+      <c r="M42" s="14" t="n"/>
+      <c r="N42" s="14" t="n"/>
+      <c r="O42" s="14" t="n"/>
+      <c r="P42" s="14" t="n"/>
+      <c r="Q42" s="14" t="n"/>
+      <c r="R42" s="14" t="n"/>
+      <c r="S42" s="18" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="40" t="n"/>
-      <c r="B43" s="14" t="n">
-        <v>4626026</v>
-      </c>
-      <c r="C43" s="14" t="inlineStr">
-        <is>
-          <t>MORTERO SECO MULTI USO 40KG ARG</t>
-        </is>
-      </c>
-      <c r="D43" s="14" t="n">
-        <v>824</v>
-      </c>
-      <c r="E43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="14" t="n">
-        <v>30455.04</v>
-      </c>
-      <c r="J43" s="14" t="n">
-        <v>31487</v>
-      </c>
-      <c r="K43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="14" t="n">
-        <v>12960</v>
-      </c>
-      <c r="P43" s="14" t="n">
-        <v>12486</v>
-      </c>
-      <c r="Q43" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 20:58:00</t>
-        </is>
-      </c>
-      <c r="R43" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 23:05:00</t>
-        </is>
-      </c>
-      <c r="S43" s="18" t="inlineStr">
-        <is>
-          <t>2:07:00</t>
-        </is>
-      </c>
+      <c r="B43" s="14" t="n"/>
+      <c r="C43" s="14" t="n"/>
+      <c r="D43" s="14" t="n"/>
+      <c r="E43" s="14" t="n"/>
+      <c r="F43" s="14" t="n"/>
+      <c r="G43" s="14" t="n"/>
+      <c r="H43" s="14" t="n"/>
+      <c r="I43" s="14" t="n"/>
+      <c r="J43" s="14" t="n"/>
+      <c r="K43" s="14" t="n"/>
+      <c r="L43" s="14" t="n"/>
+      <c r="M43" s="14" t="n"/>
+      <c r="N43" s="14" t="n"/>
+      <c r="O43" s="14" t="n"/>
+      <c r="P43" s="14" t="n"/>
+      <c r="Q43" s="14" t="n"/>
+      <c r="R43" s="14" t="n"/>
+      <c r="S43" s="18" t="n"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="6" thickBot="1">
       <c r="A44" s="41" t="n"/>
-      <c r="B44" s="14" t="n">
-        <v>4626251</v>
-      </c>
-      <c r="C44" s="14" t="inlineStr">
-        <is>
-          <t>MORTERO SECO REPELLO TIPO S 40KG ARG</t>
-        </is>
-      </c>
-      <c r="D44" s="14" t="n">
-        <v>824</v>
-      </c>
-      <c r="E44" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="14" t="n">
-        <v>1040</v>
-      </c>
-      <c r="J44" s="14" t="n">
-        <v>1076</v>
-      </c>
-      <c r="K44" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" s="14" t="n">
-        <v>480</v>
-      </c>
-      <c r="P44" s="14" t="n">
-        <v>464</v>
-      </c>
-      <c r="Q44" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 20:47:00</t>
-        </is>
-      </c>
-      <c r="R44" s="14" t="inlineStr">
-        <is>
-          <t>2024-02-26 20:47:00</t>
-        </is>
-      </c>
-      <c r="S44" s="18" t="inlineStr">
-        <is>
-          <t>0:00:00</t>
-        </is>
-      </c>
+      <c r="B44" s="14" t="n"/>
+      <c r="C44" s="14" t="n"/>
+      <c r="D44" s="14" t="n"/>
+      <c r="E44" s="14" t="n"/>
+      <c r="F44" s="14" t="n"/>
+      <c r="G44" s="14" t="n"/>
+      <c r="H44" s="14" t="n"/>
+      <c r="I44" s="14" t="n"/>
+      <c r="J44" s="14" t="n"/>
+      <c r="K44" s="14" t="n"/>
+      <c r="L44" s="14" t="n"/>
+      <c r="M44" s="14" t="n"/>
+      <c r="N44" s="14" t="n"/>
+      <c r="O44" s="14" t="n"/>
+      <c r="P44" s="14" t="n"/>
+      <c r="Q44" s="14" t="n"/>
+      <c r="R44" s="14" t="n"/>
+      <c r="S44" s="18" t="n"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="6" thickBot="1"/>
     <row r="48" ht="15.75" customHeight="1" s="6" thickBot="1">
@@ -2808,40 +2172,40 @@
     </row>
     <row r="50">
       <c r="A50" s="14" t="n">
-        <v>0.149</v>
+        <v>1.299</v>
       </c>
       <c r="B50" s="14" t="n">
-        <v>2.902</v>
+        <v>25.302</v>
       </c>
       <c r="C50" s="14" t="n">
-        <v>2.359</v>
+        <v>-0.073</v>
       </c>
       <c r="D50" s="14" t="n">
-        <v>45.948</v>
+        <v>-1.422</v>
       </c>
       <c r="E50" s="14" t="n">
-        <v>0.6820000000000001</v>
+        <v>-0.089</v>
       </c>
       <c r="F50" s="14" t="n">
-        <v>13.284</v>
+        <v>-1.734</v>
       </c>
       <c r="G50" s="14" t="n">
-        <v>5.274</v>
+        <v>1.983</v>
       </c>
       <c r="H50" s="14" t="n">
-        <v>87.483</v>
+        <v>32.893</v>
       </c>
       <c r="I50" s="14" t="n">
-        <v>1.716</v>
+        <v>2.43</v>
       </c>
       <c r="J50" s="14" t="n">
-        <v>30.021</v>
+        <v>42.512</v>
       </c>
       <c r="K50" s="14" t="n">
-        <v>0.636</v>
+        <v>4.317</v>
       </c>
       <c r="L50" s="14" t="n">
-        <v>11.127</v>
+        <v>75.52500000000001</v>
       </c>
     </row>
   </sheetData>
